--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,173 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
       </c>
       <c r="I8" s="3">
         <v>1500</v>
       </c>
       <c r="J8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>1000</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
@@ -827,57 +840,69 @@
         <v>700</v>
       </c>
       <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>500</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,22 +920,24 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,22 +1022,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1015,11 +1054,11 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,63 +1150,71 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1164,22 +1223,22 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1188,13 +1247,19 @@
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,16 +1326,22 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1277,45 +1350,51 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1344,25 +1423,31 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1371,84 +1456,96 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>17</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>17</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,16 +1591,22 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1512,45 +1615,51 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1559,37 +1668,43 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,16 +1962,22 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1841,37 +1986,43 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,16 +2068,22 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -1935,89 +2092,101 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,31 +2225,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
@@ -2087,22 +2260,28 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,31 +2327,37 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
@@ -2181,36 +2366,42 @@
         <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1100</v>
       </c>
       <c r="H44" s="3">
         <v>1100</v>
@@ -2222,42 +2413,48 @@
         <v>1100</v>
       </c>
       <c r="K44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1100</v>
       </c>
       <c r="O44" s="3">
         <v>1100</v>
       </c>
       <c r="P44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q44" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2289,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,34 +2592,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2430,23 +2645,29 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +3009,68 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,93 +3126,105 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,19 +3285,19 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>17</v>
@@ -3014,8 +3305,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-45400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-45000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-44300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,68 +4086,80 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -3779,37 +4168,43 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4614,15 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4195,11 +4636,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>17</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>17</v>
@@ -4207,11 +4648,11 @@
       <c r="L91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,23 +4769,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,20 +5070,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4600,25 +5091,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,193 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>1500</v>
       </c>
       <c r="L8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>1000</v>
       </c>
       <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>600</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q9" s="3">
         <v>500</v>
@@ -846,63 +860,75 @@
         <v>700</v>
       </c>
       <c r="S9" s="3">
+        <v>500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>700</v>
+      </c>
+      <c r="U9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
       <c r="H10" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,28 +948,30 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,28 +1062,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
@@ -1060,11 +1100,11 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,66 +1215,72 @@
         <v>2800</v>
       </c>
       <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
       <c r="S17" s="3">
+        <v>900</v>
+      </c>
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1229,22 +1289,22 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1253,13 +1313,19 @@
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,22 +1400,28 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1356,104 +1430,116 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1462,90 +1548,102 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>17</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>17</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,22 +1695,28 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1621,51 +1725,57 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1674,37 +1784,43 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,22 +2108,28 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1992,37 +2138,43 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,22 +2226,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2098,95 +2256,107 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,37 +2399,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
@@ -2266,22 +2440,28 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,37 +2513,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>800</v>
@@ -2372,42 +2558,48 @@
         <v>600</v>
       </c>
       <c r="O43" s="3">
+        <v>800</v>
+      </c>
+      <c r="P43" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1100</v>
       </c>
       <c r="J44" s="3">
         <v>1100</v>
@@ -2419,28 +2611,34 @@
         <v>1100</v>
       </c>
       <c r="M44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1100</v>
       </c>
       <c r="Q44" s="3">
         <v>1100</v>
       </c>
       <c r="R44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S44" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,16 +2649,16 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2492,61 +2690,73 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,40 +2808,46 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,17 +2885,17 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
+        <v>800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>800</v>
+      </c>
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,73 +3271,81 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3117,114 +3385,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,34 +3562,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>17</v>
@@ -3311,8 +3603,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-45600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-45300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-45000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-44700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-44300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4352,14 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,52 +4367,58 @@
         <v>2800</v>
       </c>
       <c r="E76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,80 +4470,92 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4174,37 +4564,43 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,20 +5056,22 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4642,11 +5084,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>17</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>17</v>
@@ -4654,11 +5096,11 @@
       <c r="N91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,29 +5229,35 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,26 +5562,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5097,25 +5589,31 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,176 +762,185 @@
         <v>2800</v>
       </c>
       <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1600</v>
       </c>
       <c r="F9" s="3">
         <v>1600</v>
       </c>
       <c r="G9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H9" s="3">
         <v>1900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1500</v>
       </c>
       <c r="I9" s="3">
         <v>1500</v>
       </c>
       <c r="J9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="3">
         <v>900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1100</v>
       </c>
       <c r="L9" s="3">
         <v>1100</v>
       </c>
       <c r="M9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
       </c>
       <c r="O9" s="3">
         <v>500</v>
       </c>
       <c r="P9" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,22 +962,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -974,7 +987,7 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1088,11 +1107,11 @@
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1106,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,84 +1231,88 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1100</v>
       </c>
       <c r="U17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1295,37 +1324,40 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1406,25 +1439,28 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1436,37 +1472,40 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1479,12 +1518,12 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1515,34 +1554,37 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>17</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1554,48 +1596,51 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
@@ -1603,11 +1648,11 @@
       <c r="H24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>17</v>
@@ -1615,11 +1660,11 @@
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>17</v>
@@ -1627,11 +1672,11 @@
       <c r="P24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>17</v>
@@ -1639,11 +1684,14 @@
       <c r="T24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,25 +1749,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1731,54 +1782,57 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1790,37 +1844,40 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,25 +2183,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2144,37 +2216,40 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2262,101 +2340,107 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,81 +2620,84 @@
         <v>1600</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>1500</v>
       </c>
       <c r="G43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2200</v>
       </c>
       <c r="F44" s="3">
         <v>2200</v>
       </c>
       <c r="G44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1100</v>
@@ -2617,13 +2712,13 @@
         <v>1100</v>
       </c>
       <c r="O44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P44" s="3">
         <v>1000</v>
       </c>
       <c r="Q44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R44" s="3">
         <v>1100</v>
@@ -2632,13 +2727,16 @@
         <v>1100</v>
       </c>
       <c r="T44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U44" s="3">
         <v>1000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2655,13 +2753,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2696,67 +2794,73 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2826,19 +2933,19 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2847,10 +2954,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2891,13 +3001,13 @@
         <v>800</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5800</v>
       </c>
       <c r="G54" s="3">
         <v>5800</v>
       </c>
       <c r="H54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,37 +3412,37 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
@@ -3321,19 +3451,22 @@
         <v>700</v>
       </c>
       <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,14 +3474,14 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
       </c>
       <c r="H60" s="3">
         <v>2000</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3725,7 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
@@ -3589,10 +3734,10 @@
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>17</v>
@@ -3600,14 +3745,14 @@
       <c r="L62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2600</v>
       </c>
       <c r="H66" s="3">
         <v>2600</v>
       </c>
       <c r="I66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-47100</v>
+        <v>-47300</v>
       </c>
       <c r="E72" s="3">
         <v>-47100</v>
       </c>
       <c r="F72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-46700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-45000</v>
       </c>
       <c r="N72" s="3">
         <v>-45000</v>
       </c>
       <c r="O72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-44800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-44700</v>
       </c>
       <c r="Q72" s="3">
         <v>-44700</v>
       </c>
       <c r="R72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-44400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4373,52 +4558,55 @@
         <v>2800</v>
       </c>
       <c r="G76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H76" s="3">
         <v>3200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3400</v>
       </c>
       <c r="I76" s="3">
         <v>3400</v>
       </c>
       <c r="J76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>600</v>
       </c>
       <c r="M76" s="3">
         <v>600</v>
       </c>
       <c r="N76" s="3">
+        <v>600</v>
+      </c>
+      <c r="O76" s="3">
         <v>500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>800</v>
       </c>
       <c r="P76" s="3">
         <v>800</v>
       </c>
       <c r="Q76" s="3">
+        <v>800</v>
+      </c>
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4570,37 +4764,40 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,11 +5290,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5090,8 +5310,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>17</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>17</v>
@@ -5102,8 +5322,8 @@
       <c r="P91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,20 +5476,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,11 +5807,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5574,17 +5819,17 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5595,25 +5840,28 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,230 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
         <v>2800</v>
       </c>
       <c r="F8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1600</v>
       </c>
       <c r="G9" s="3">
         <v>1600</v>
       </c>
       <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1500</v>
       </c>
       <c r="J9" s="3">
         <v>1500</v>
       </c>
       <c r="K9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="3">
         <v>900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1100</v>
       </c>
       <c r="M9" s="3">
         <v>1100</v>
       </c>
       <c r="N9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>500</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>500</v>
+      </c>
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,16 +986,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -990,7 +1004,7 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,22 +1104,25 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>-800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1110,11 +1130,11 @@
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,90 +1258,94 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1100</v>
       </c>
       <c r="V17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1327,37 +1357,40 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1442,28 +1476,31 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1475,37 +1512,40 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1521,12 +1561,12 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1557,37 +1597,40 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>17</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1599,37 +1642,40 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,11 +1685,11 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
@@ -1651,11 +1697,11 @@
       <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
@@ -1663,11 +1709,11 @@
       <c r="M24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>17</v>
@@ -1675,11 +1721,11 @@
       <c r="Q24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>17</v>
@@ -1687,11 +1733,14 @@
       <c r="U24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,28 +1801,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1785,57 +1837,60 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1847,37 +1902,40 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,28 +2256,31 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2219,37 +2292,40 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,28 +2386,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2343,104 +2422,110 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,61 +2583,64 @@
         <v>800</v>
       </c>
       <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G43" s="3">
         <v>1500</v>
       </c>
       <c r="H43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
       </c>
       <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>500</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
       </c>
       <c r="T43" s="3">
+        <v>500</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,25 +2778,25 @@
         <v>1900</v>
       </c>
       <c r="E44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F44" s="3">
         <v>2100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2200</v>
       </c>
       <c r="G44" s="3">
         <v>2200</v>
       </c>
       <c r="H44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1100</v>
       </c>
       <c r="L44" s="3">
         <v>1100</v>
@@ -2715,13 +2811,13 @@
         <v>1100</v>
       </c>
       <c r="P44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q44" s="3">
         <v>1000</v>
       </c>
       <c r="R44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S44" s="3">
         <v>1100</v>
@@ -2730,13 +2826,16 @@
         <v>1100</v>
       </c>
       <c r="U44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V44" s="3">
         <v>1000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2756,13 +2855,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2797,70 +2896,76 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2936,19 +3044,19 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2957,10 +3065,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3004,13 +3115,13 @@
         <v>800</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,61 +3428,64 @@
         <v>5900</v>
       </c>
       <c r="E54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5800</v>
       </c>
       <c r="H54" s="3">
         <v>5800</v>
       </c>
       <c r="I54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,37 +3546,37 @@
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
@@ -3454,37 +3585,40 @@
         <v>700</v>
       </c>
       <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1200</v>
       </c>
       <c r="V57" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3527,137 +3661,146 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>2000</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3728,7 +3874,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -3737,10 +3883,10 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>17</v>
@@ -3748,14 +3894,14 @@
       <c r="M62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2600</v>
       </c>
       <c r="I66" s="3">
         <v>2600</v>
       </c>
       <c r="J66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-47100</v>
       </c>
       <c r="F72" s="3">
         <v>-47100</v>
       </c>
       <c r="G72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-46700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-45000</v>
       </c>
       <c r="O72" s="3">
         <v>-45000</v>
       </c>
       <c r="P72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-44800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-44700</v>
       </c>
       <c r="R72" s="3">
         <v>-44700</v>
       </c>
       <c r="S72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-44400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,13 +4726,16 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="E76" s="3">
         <v>2800</v>
@@ -4561,52 +4747,55 @@
         <v>2800</v>
       </c>
       <c r="H76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I76" s="3">
         <v>3200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3400</v>
       </c>
       <c r="J76" s="3">
         <v>3400</v>
       </c>
       <c r="K76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>600</v>
       </c>
       <c r="N76" s="3">
         <v>600</v>
       </c>
       <c r="O76" s="3">
+        <v>600</v>
+      </c>
+      <c r="P76" s="3">
         <v>500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>800</v>
       </c>
       <c r="Q76" s="3">
         <v>800</v>
       </c>
       <c r="R76" s="3">
+        <v>800</v>
+      </c>
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,95 +4856,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4767,37 +4962,40 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,11 +5514,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5313,8 +5534,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>17</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>17</v>
@@ -5325,8 +5546,8 @@
       <c r="Q91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5479,20 +5709,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,11 +6056,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5822,17 +6068,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5843,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1500</v>
       </c>
       <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>700</v>
       </c>
       <c r="T8" s="3">
         <v>1000</v>
       </c>
       <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
         <v>1900</v>
       </c>
       <c r="F9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>600</v>
       </c>
       <c r="S9" s="3">
         <v>500</v>
       </c>
       <c r="T9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U9" s="3">
         <v>500</v>
@@ -885,75 +899,87 @@
         <v>700</v>
       </c>
       <c r="W9" s="3">
+        <v>500</v>
+      </c>
+      <c r="X9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
       </c>
       <c r="L10" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,31 +1014,31 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,40 +1141,46 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>17</v>
+      <c r="M14" s="3">
+        <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
@@ -1151,11 +1191,11 @@
       <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,99 +1311,107 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2600</v>
       </c>
       <c r="H17" s="3">
         <v>2800</v>
       </c>
       <c r="I17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
       </c>
       <c r="T17" s="3">
         <v>1100</v>
       </c>
       <c r="U17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V17" s="3">
         <v>1100</v>
       </c>
       <c r="W17" s="3">
+        <v>900</v>
+      </c>
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1360,22 +1420,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1384,13 +1444,19 @@
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,34 +1547,40 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1515,37 +1589,43 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,15 +1644,15 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1600,43 +1680,49 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1645,102 +1731,114 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>17</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>17</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>17</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,34 +1902,40 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1840,63 +1944,69 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1905,37 +2015,43 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,34 +2399,40 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2295,37 +2441,43 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,34 +2541,40 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2425,107 +2583,119 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,49 +2746,51 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
@@ -2625,22 +2799,28 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>500</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,49 +2884,55 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>600</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
@@ -2755,54 +2941,60 @@
         <v>600</v>
       </c>
       <c r="S43" s="3">
+        <v>800</v>
+      </c>
+      <c r="T43" s="3">
+        <v>600</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E44" s="3">
         <v>1900</v>
       </c>
       <c r="F44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1100</v>
       </c>
       <c r="N44" s="3">
         <v>1100</v>
@@ -2814,28 +3006,34 @@
         <v>1100</v>
       </c>
       <c r="Q44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1100</v>
       </c>
       <c r="U44" s="3">
         <v>1100</v>
       </c>
       <c r="V44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="W44" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +3041,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2858,16 +3056,16 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2899,73 +3097,85 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,52 +3239,58 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
-        <v>600</v>
-      </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3118,17 +3340,17 @@
         <v>800</v>
       </c>
       <c r="J49" s="3">
+        <v>800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>800</v>
+      </c>
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3794,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
       </c>
       <c r="R57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
       </c>
       <c r="T57" s="3">
+        <v>700</v>
+      </c>
+      <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,23 +3876,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3664,149 +3932,167 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,37 +4160,37 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>17</v>
@@ -3906,8 +4198,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-47100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-47100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-46300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-45700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-45600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-44800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-44700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-44400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-44300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-44000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,19 +5095,25 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2800</v>
       </c>
       <c r="G76" s="3">
         <v>2800</v>
@@ -4750,52 +5122,58 @@
         <v>2800</v>
       </c>
       <c r="I76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,104 +5237,116 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -4965,37 +5355,43 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>400</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5517,14 +5959,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5537,11 +5979,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>17</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>17</v>
@@ -5549,11 +5991,11 @@
       <c r="R91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,41 +6148,47 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6530,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6059,32 +6551,32 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6092,25 +6584,31 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2800</v>
       </c>
       <c r="H8" s="3">
         <v>2800</v>
       </c>
       <c r="I8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1600</v>
       </c>
       <c r="J9" s="3">
         <v>1600</v>
       </c>
       <c r="K9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="3">
         <v>1900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1500</v>
       </c>
       <c r="M9" s="3">
         <v>1500</v>
       </c>
       <c r="N9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1100</v>
       </c>
       <c r="P9" s="3">
         <v>1100</v>
       </c>
       <c r="Q9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R9" s="3">
         <v>900</v>
-      </c>
-      <c r="R9" s="3">
-        <v>500</v>
       </c>
       <c r="S9" s="3">
         <v>500</v>
       </c>
       <c r="T9" s="3">
+        <v>500</v>
+      </c>
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,25 +1027,25 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -1041,7 +1054,7 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,31 +1163,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1179,11 +1198,11 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>17</v>
@@ -1197,8 +1216,8 @@
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,108 +1338,112 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1100</v>
       </c>
       <c r="Y17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1426,37 +1455,40 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1553,37 +1586,40 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1595,37 +1631,40 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1650,12 +1689,12 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1686,46 +1725,49 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>17</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1737,48 +1779,51 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
@@ -1786,11 +1831,11 @@
       <c r="H24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>17</v>
@@ -1798,11 +1843,11 @@
       <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>17</v>
@@ -1810,11 +1855,11 @@
       <c r="P24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>17</v>
@@ -1822,11 +1867,11 @@
       <c r="T24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>17</v>
@@ -1834,11 +1879,14 @@
       <c r="X24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,37 +1956,40 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1950,66 +2001,69 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -2021,37 +2075,40 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,37 +2474,40 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2447,37 +2519,40 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,37 +2622,40 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2589,113 +2667,119 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>800</v>
       </c>
       <c r="H41" s="3">
+        <v>800</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,87 +2979,93 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1600</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
       </c>
       <c r="I43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J43" s="3">
         <v>1500</v>
       </c>
       <c r="K43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>700</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
       <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
-      </c>
-      <c r="U43" s="3">
-        <v>500</v>
       </c>
       <c r="V43" s="3">
         <v>500</v>
       </c>
       <c r="W43" s="3">
+        <v>500</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1900</v>
       </c>
       <c r="F44" s="3">
         <v>1900</v>
@@ -2979,25 +3074,25 @@
         <v>1900</v>
       </c>
       <c r="H44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I44" s="3">
         <v>2100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2200</v>
       </c>
       <c r="J44" s="3">
         <v>2200</v>
       </c>
       <c r="K44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1100</v>
       </c>
       <c r="O44" s="3">
         <v>1100</v>
@@ -3012,13 +3107,13 @@
         <v>1100</v>
       </c>
       <c r="S44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T44" s="3">
         <v>1000</v>
       </c>
       <c r="U44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V44" s="3">
         <v>1100</v>
@@ -3027,24 +3122,27 @@
         <v>1100</v>
       </c>
       <c r="X44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3062,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3103,79 +3201,85 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,22 +3349,25 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -3269,19 +3376,19 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3290,10 +3397,10 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3316,13 +3423,16 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>9800</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
@@ -3346,13 +3456,13 @@
         <v>800</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5900</v>
       </c>
       <c r="G54" s="3">
         <v>5900</v>
       </c>
       <c r="H54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5800</v>
       </c>
       <c r="K54" s="3">
         <v>5800</v>
       </c>
       <c r="L54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,10 +3935,10 @@
         <v>1300</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -3817,37 +3947,37 @@
         <v>1000</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
@@ -3856,24 +3986,27 @@
         <v>700</v>
       </c>
       <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1200</v>
       </c>
       <c r="Y57" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3882,20 +4015,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3938,164 +4071,173 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
       </c>
       <c r="L60" s="3">
         <v>2000</v>
       </c>
       <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4151,13 +4293,16 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4166,7 +4311,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -4175,7 +4320,7 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -4184,10 +4329,10 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>17</v>
@@ -4195,14 +4340,14 @@
       <c r="P62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2600</v>
       </c>
       <c r="L66" s="3">
         <v>2600</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-47100</v>
       </c>
       <c r="I72" s="3">
         <v>-47100</v>
       </c>
       <c r="J72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-45000</v>
       </c>
       <c r="R72" s="3">
         <v>-45000</v>
       </c>
       <c r="S72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="T72" s="3">
         <v>-44800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-44700</v>
       </c>
       <c r="U72" s="3">
         <v>-44700</v>
       </c>
       <c r="V72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-44400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-44300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,22 +5283,25 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2800</v>
       </c>
       <c r="H76" s="3">
         <v>2800</v>
@@ -5128,52 +5313,55 @@
         <v>2800</v>
       </c>
       <c r="K76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L76" s="3">
         <v>3200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>3400</v>
       </c>
       <c r="M76" s="3">
         <v>3400</v>
       </c>
       <c r="N76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>600</v>
       </c>
       <c r="Q76" s="3">
         <v>600</v>
       </c>
       <c r="R76" s="3">
+        <v>600</v>
+      </c>
+      <c r="S76" s="3">
         <v>500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>800</v>
       </c>
       <c r="T76" s="3">
         <v>800</v>
       </c>
       <c r="U76" s="3">
+        <v>800</v>
+      </c>
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,113 +5431,119 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -5361,37 +5555,40 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5965,11 +6185,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5985,8 +6205,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>17</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>17</v>
@@ -5997,8 +6217,8 @@
       <c r="T91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,23 +6380,26 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6178,20 +6407,20 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,17 +6778,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6557,11 +6802,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6569,17 +6814,17 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6590,25 +6835,28 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEYE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PEYE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2800</v>
       </c>
       <c r="I8" s="3">
         <v>2800</v>
       </c>
       <c r="J8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
       </c>
       <c r="L9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="3">
         <v>1900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1500</v>
       </c>
       <c r="N9" s="3">
         <v>1500</v>
       </c>
       <c r="O9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P9" s="3">
         <v>900</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1100</v>
       </c>
       <c r="Q9" s="3">
         <v>1100</v>
       </c>
       <c r="R9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S9" s="3">
         <v>900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>500</v>
       </c>
       <c r="T9" s="3">
         <v>500</v>
       </c>
       <c r="U9" s="3">
+        <v>500</v>
+      </c>
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
       </c>
       <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,37 +1031,38 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -1057,7 +1071,7 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1175,25 +1195,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
@@ -1201,11 +1221,11 @@
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>17</v>
@@ -1219,8 +1239,8 @@
       <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,114 +1365,118 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1100</v>
       </c>
       <c r="Z17" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1458,37 +1488,40 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,40 +1623,43 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1634,42 +1671,45 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-200</v>
       </c>
       <c r="X21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>-300</v>
       </c>
       <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1692,12 +1732,12 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1728,49 +1768,52 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>17</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1782,37 +1825,40 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1822,11 +1868,11 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
@@ -1834,11 +1880,11 @@
       <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
@@ -1846,11 +1892,11 @@
       <c r="M24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>17</v>
@@ -1858,11 +1904,11 @@
       <c r="Q24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>17</v>
@@ -1870,11 +1916,11 @@
       <c r="U24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>17</v>
@@ -1882,11 +1928,14 @@
       <c r="Y24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,40 +2008,43 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2004,69 +2056,72 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2078,37 +2133,40 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,40 +2547,43 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2522,37 +2595,40 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,40 +2701,43 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2670,116 +2749,122 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>800</v>
       </c>
       <c r="H41" s="3">
         <v>800</v>
       </c>
       <c r="I41" s="3">
+        <v>800</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
       <c r="S41" s="3">
+        <v>400</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,93 +3072,99 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1600</v>
       </c>
       <c r="I43" s="3">
         <v>1600</v>
       </c>
       <c r="J43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K43" s="3">
         <v>1500</v>
       </c>
       <c r="L43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
       </c>
       <c r="R43" s="3">
+        <v>700</v>
+      </c>
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
-      </c>
-      <c r="V43" s="3">
-        <v>500</v>
       </c>
       <c r="W43" s="3">
         <v>500</v>
       </c>
       <c r="X43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1900</v>
       </c>
       <c r="G44" s="3">
         <v>1900</v>
@@ -3077,25 +3173,25 @@
         <v>1900</v>
       </c>
       <c r="I44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J44" s="3">
         <v>2100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2200</v>
       </c>
       <c r="K44" s="3">
         <v>2200</v>
       </c>
       <c r="L44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M44" s="3">
         <v>2000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1100</v>
       </c>
       <c r="P44" s="3">
         <v>1100</v>
@@ -3110,13 +3206,13 @@
         <v>1100</v>
       </c>
       <c r="T44" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="U44" s="3">
         <v>1000</v>
       </c>
       <c r="V44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W44" s="3">
         <v>1100</v>
@@ -3125,13 +3221,16 @@
         <v>1100</v>
       </c>
       <c r="Y44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,13 +3238,13 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3163,13 +3262,13 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3204,82 +3303,88 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,25 +3457,28 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -3379,19 +3487,19 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
+        <v>500</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3400,10 +3508,10 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3426,16 +3534,19 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>800</v>
@@ -3459,13 +3570,13 @@
         <v>800</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5900</v>
       </c>
       <c r="H54" s="3">
         <v>5900</v>
       </c>
       <c r="I54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5800</v>
       </c>
       <c r="L54" s="3">
         <v>5800</v>
       </c>
       <c r="M54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,22 +4056,23 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>1300</v>
       </c>
       <c r="F57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -3950,37 +4081,37 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>700</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
@@ -3989,19 +4120,22 @@
         <v>700</v>
       </c>
       <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1200</v>
       </c>
       <c r="Z57" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,7 +4143,7 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4018,20 +4152,20 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4074,173 +4208,182 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
       </c>
       <c r="M60" s="3">
         <v>2000</v>
       </c>
       <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4296,16 +4439,19 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4314,7 +4460,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4323,7 +4469,7 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -4332,10 +4478,10 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>17</v>
@@ -4343,14 +4489,14 @@
       <c r="Q62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2600</v>
       </c>
       <c r="M66" s="3">
         <v>2600</v>
       </c>
       <c r="N66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-47100</v>
       </c>
       <c r="J72" s="3">
         <v>-47100</v>
       </c>
       <c r="K72" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-46700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-45000</v>
       </c>
       <c r="S72" s="3">
         <v>-45000</v>
       </c>
       <c r="T72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="U72" s="3">
         <v>-44800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-44700</v>
       </c>
       <c r="V72" s="3">
         <v>-44700</v>
       </c>
       <c r="W72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-44400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,25 +5469,28 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2800</v>
       </c>
       <c r="I76" s="3">
         <v>2800</v>
@@ -5316,52 +5502,55 @@
         <v>2800</v>
       </c>
       <c r="L76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M76" s="3">
         <v>3200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3400</v>
       </c>
       <c r="N76" s="3">
         <v>3400</v>
       </c>
       <c r="O76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>600</v>
       </c>
       <c r="R76" s="3">
         <v>600</v>
       </c>
       <c r="S76" s="3">
+        <v>600</v>
+      </c>
+      <c r="T76" s="3">
         <v>500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>800</v>
       </c>
       <c r="U76" s="3">
         <v>800</v>
       </c>
       <c r="V76" s="3">
+        <v>800</v>
+      </c>
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,119 +5623,125 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5558,37 +5753,40 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,17 +5813,18 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-400</v>
       </c>
       <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6188,11 +6409,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6208,8 +6429,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>17</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>17</v>
@@ -6220,8 +6441,8 @@
       <c r="U91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,26 +6610,29 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6410,20 +6640,20 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,20 +7024,23 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6805,11 +7051,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6817,17 +7063,17 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6838,25 +7084,28 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6938,69 +7190,72 @@
         <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>
